--- a/19082025_PE Licenciatura_Informe anual - copia (1).backup.xlsx
+++ b/19082025_PE Licenciatura_Informe anual - copia (1).backup.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Totales" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Notas" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Cambios_detectados" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Maestra_normalizada" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -656,7 +657,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr">
         <is>
           <t>FACULTAD DE CIENCIAS | ACTUARÍA | PRESENCIAL</t>
@@ -714,7 +714,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
           <t>FES ACATLÁN | ACTUARÍA | PRESENCIAL</t>
@@ -772,7 +771,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr">
         <is>
           <t>FACULTAD DE ARQUITECTURA | ARQUITECTURA | PRESENCIAL</t>
@@ -830,7 +828,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr">
         <is>
           <t>FES ACATLÁN | ARQUITECTURA | PRESENCIAL</t>
@@ -888,7 +885,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr">
         <is>
           <t>FES ARAGÓN | ARQUITECTURA | PRESENCIAL</t>
@@ -946,7 +942,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr">
         <is>
           <t>FACULTAD DE ARQUITECTURA | ARQUITECTURA DEL PAISAJE | PRESENCIAL</t>
@@ -1004,7 +999,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr">
         <is>
           <t>FACULTAD DE CIENCIAS | CIENCIAS DE LA COMPUTACIÓN | PRESENCIAL</t>
@@ -1062,7 +1056,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr">
         <is>
           <t>FACULTAD DE ARQUITECTURA | DISEÑO INDUSTRIAL | PRESENCIAL</t>
@@ -1120,7 +1113,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr">
         <is>
           <t>FES ARAGÓN | DISEÑO INDUSTRIAL | PRESENCIAL</t>
@@ -1178,7 +1170,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr">
         <is>
           <t>FACULTAD DE CIENCIAS | FÍSICA | PRESENCIAL</t>
@@ -1236,7 +1227,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr">
         <is>
           <t>FACULTAD DE INGENIERÍA | INGENIERÍA CIVIL | PRESENCIAL</t>
@@ -1294,7 +1284,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr">
         <is>
           <t>FES ACATLÁN | INGENIERÍA CIVIL | PRESENCIAL</t>
@@ -1352,7 +1341,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr">
         <is>
           <t>FES ARAGÓN | INGENIERÍA CIVIL | PRESENCIAL</t>
@@ -1410,7 +1398,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr">
         <is>
           <t>FACULTAD DE INGENIERÍA | INGENIERÍA DE MINAS Y METALURGIA | PRESENCIAL</t>
@@ -1468,7 +1455,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr">
         <is>
           <t>FACULTAD DE INGENIERÍA | INGENIERÍA ELÉCTRICA ELECTRÓNICA | PRESENCIAL</t>
@@ -1526,7 +1512,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr">
         <is>
           <t>FES ARAGÓN | INGENIERÍA ELÉCTRICA ELECTRÓNICA | PRESENCIAL</t>
@@ -1584,7 +1569,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr">
         <is>
           <t>FACULTAD DE INGENIERÍA | INGENIERÍA EN COMPUTACIÓN | PRESENCIAL</t>
@@ -1642,7 +1626,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr">
         <is>
           <t>FES ARAGÓN | INGENIERÍA EN COMPUTACIÓN | PRESENCIAL</t>
@@ -1700,7 +1683,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr">
         <is>
           <t>FACULTAD DE INGENIERÍA | INGENIERÍA EN TELECOMUNICACIONES | PRESENCIAL</t>
@@ -1758,7 +1740,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr">
         <is>
           <t>FACULTAD DE INGENIERÍA | INGENIERÍA GEOFÍSICA | PRESENCIAL</t>
@@ -1816,7 +1797,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr">
         <is>
           <t>FACULTAD DE INGENIERÍA | INGENIERÍA GEOLÓGICA | PRESENCIAL</t>
@@ -1874,7 +1854,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr">
         <is>
           <t>FACULTAD DE INGENIERÍA | INGENIERÍA INDUSTRIAL | PRESENCIAL</t>
@@ -1932,7 +1911,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr">
         <is>
           <t>FES CUAUTITLÁN | INGENIERÍA INDUSTRIAL | PRESENCIAL</t>
@@ -1990,7 +1968,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr">
         <is>
           <t>FES ARAGÓN | INGENIERÍA INDUSTRIAL | PRESENCIAL</t>
@@ -2048,7 +2025,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr">
         <is>
           <t>FACULTAD DE INGENIERÍA | INGENIERÍA MECÁNICA | PRESENCIAL</t>
@@ -2106,7 +2082,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr">
         <is>
           <t>FES ARAGÓN | INGENIERÍA MECÁNICA | PRESENCIAL</t>
@@ -2164,7 +2139,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr">
         <is>
           <t>FES CUAUTITLÁN | INGENIERÍA MECÁNICA ELÉCTRICA | PRESENCIAL</t>
@@ -2222,7 +2196,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr">
         <is>
           <t>FACULTAD DE INGENIERÍA | INGENIERÍA PETROLERA | PRESENCIAL</t>
@@ -2280,7 +2253,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr">
         <is>
           <t>FACULTAD DE QUÍMICA | INGENIERÍA QUÍMICA | PRESENCIAL</t>
@@ -2338,7 +2310,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr">
         <is>
           <t>FES CUAUTITLÁN | INGENIERÍA QUÍMICA | PRESENCIAL</t>
@@ -2396,7 +2367,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr">
         <is>
           <t>FES ZARAGOZA | INGENIERÍA QUÍMICA | PRESENCIAL</t>
@@ -2454,7 +2424,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr">
         <is>
           <t>FACULTAD DE QUÍMICA | INGENIERÍA QUÍMICA METALÚRGICA | PRESENCIAL</t>
@@ -2512,7 +2481,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr">
         <is>
           <t>FES ACATLÁN | MATEMÁTICAS APLICADAS Y COMPUTACIÓN | PRESENCIAL</t>
@@ -2570,7 +2538,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr">
         <is>
           <t>FACULTAD DE CIENCIAS | MATEMÁTICAS | PRESENCIAL</t>
@@ -2628,7 +2595,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr">
         <is>
           <t>FACULTAD DE ARQUITECTURA | URBANISMO | PRESENCIAL</t>
@@ -2686,7 +2652,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr">
         <is>
           <t>FACULTAD DE INGENIERÍA | INGENIERÍA MECATRÓNICA | PRESENCIAL</t>
@@ -2744,7 +2709,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr">
         <is>
           <t>FACULTAD DE INGENIERÍA | INGENIERÍA GEOMÁTICA | PRESENCIAL</t>
@@ -2802,7 +2766,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr">
         <is>
           <t>FES CUAUTITLÁN | TECNOLOGÍA | PRESENCIAL</t>
@@ -2860,7 +2823,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr">
         <is>
           <t>ENES JURIQUILLA | TECNOLOGÍA | PRESENCIAL</t>
@@ -2918,7 +2880,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr">
         <is>
           <t>FACULTAD DE CIENCIAS | CIENCIAS DE LA TIERRA | PRESENCIAL</t>
@@ -2976,7 +2937,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr">
         <is>
           <t>ESCUELA NACIONAL DE CIENCIAS DE LA TIERRA | CIENCIAS DE LA TIERRA | PRESENCIAL</t>
@@ -3034,7 +2994,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr">
         <is>
           <t>ENES MÉRIDA | CIENCIAS DE LA TIERRA | PRESENCIAL</t>
@@ -3092,7 +3051,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr">
         <is>
           <t>ENES JURIQUILLA | CIENCIAS DE LA TIERRA | PRESENCIAL</t>
@@ -3150,7 +3108,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr">
         <is>
           <t>INSTITUTO DE ENERGÍAS RENOVABLES | INGENIERÍA EN ENERGÍAS RENOVABLES | PRESENCIAL</t>
@@ -3208,7 +3165,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr">
         <is>
           <t>ENES JURIQUILLA | INGENIERÍA EN ENERGÍAS RENOVABLES | PRESENCIAL</t>
@@ -3266,7 +3222,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr">
         <is>
           <t>CENTRO DE NANOCIENCIAS Y NANOTECNOLOGÍA | NANOTECNOLOGÍA | PRESENCIAL</t>
@@ -3324,7 +3279,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr">
         <is>
           <t>FES CUAUTITLÁN | INGENIERÍA EN TELECOMUNICACIONES, SISTEMAS Y ELECTRÓNICA | PRESENCIAL</t>
@@ -3382,7 +3336,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr">
         <is>
           <t>ENES MORELIA | GEOCIENCIAS | PRESENCIAL</t>
@@ -3440,7 +3393,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr">
         <is>
           <t>ENES MORELIA | TECNOLOGÍAS PARA LA INFORMACIÓN EN CIENCIAS | PRESENCIAL</t>
@@ -3498,7 +3450,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr">
         <is>
           <t>ENES MORELIA | CIENCIA DE MATERIALES SUSTENTABLES | PRESENCIAL</t>
@@ -3556,7 +3507,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr">
         <is>
           <t>FACULTAD DE CIENCIAS | FÍSICA BIOMÉDICA | PRESENCIAL</t>
@@ -3614,7 +3564,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr">
         <is>
           <t>FACULTAD DE INGENIERÍA | INGENIERÍA EN SISTEMAS BIOMÉDICOS | PRESENCIAL</t>
@@ -3672,7 +3621,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr">
         <is>
           <t>FACULTAD DE CIENCIAS | MATEMÁTICAS APLICADAS | PRESENCIAL</t>
@@ -3730,7 +3678,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr">
         <is>
           <t>FACULTAD DE INGENIERÍA | INGENIERÍA AMBIENTAL | PRESENCIAL</t>
@@ -3788,7 +3735,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr">
         <is>
           <t>INSTITUTO DE INVESTIGACIONES EN MATEMÁTICAS APLICADAS Y SISTEMAS | CIENCIA DE DATOS | PRESENCIAL</t>
@@ -3846,7 +3792,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr">
         <is>
           <t>FACULTAD DE INGENIERÍA | INGENIERÍA AEROESPACIAL | PRESENCIAL</t>
@@ -3904,7 +3849,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr">
         <is>
           <t>ENES JURIQUILLA | INGENIERÍA AEROESPACIAL | PRESENCIAL</t>
@@ -3962,7 +3906,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr">
         <is>
           <t>ENES JURIQUILLA | MATEMÁTICAS PARA EL DESARROLLO | PRESENCIAL</t>
@@ -4020,7 +3963,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr">
         <is>
           <t>FACULTAD DE CIENCIAS | BIOLOGÍA | PRESENCIAL</t>
@@ -4078,7 +4020,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr">
         <is>
           <t>FES IZTACALA | BIOLOGÍA | PRESENCIAL</t>
@@ -4136,7 +4077,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr">
         <is>
           <t>FES ZARAGOZA | BIOLOGÍA | PRESENCIAL</t>
@@ -4194,7 +4134,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr">
         <is>
           <t>FACULTAD DE ODONTOLOGÍA | CIRUJANO DENTISTA | PRESENCIAL</t>
@@ -4252,7 +4191,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr">
         <is>
           <t>FES IZTACALA | CIRUJANO DENTISTA | PRESENCIAL</t>
@@ -4310,7 +4248,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr">
         <is>
           <t>FES ZARAGOZA | CIRUJANO DENTISTA | PRESENCIAL</t>
@@ -4368,7 +4305,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr">
         <is>
           <t>FACULTAD DE ENFERMERÍA Y OBSTETRICIA | ENFERMERÍA Y OBSTETRICIA | PRESENCIAL</t>
@@ -4426,7 +4362,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr">
         <is>
           <t>FACULTAD DE ENFERMERÍA Y OBSTETRICIA | ENFERMERÍA Y OBSTETRICIA | ABIERTA</t>
@@ -4484,7 +4419,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr">
         <is>
           <t>FES CUAUTITLÁN | INGENIERÍA AGRÍCOLA | PRESENCIAL</t>
@@ -4542,7 +4476,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr">
         <is>
           <t>FES CUAUTITLÁN | INGENIERÍA EN ALIMENTOS | PRESENCIAL</t>
@@ -4600,7 +4533,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr">
         <is>
           <t>FACULTAD DE MEDICINA | INVESTIGACIÓN BIOMÉDICA BÁSICA | PRESENCIAL</t>
@@ -4658,7 +4590,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr">
         <is>
           <t>FACULTAD DE MEDICINA VETERINARIA Y ZOOTECNIA | MEDICINA VETERINARIA Y ZOOTECNIA | PRESENCIAL</t>
@@ -4716,7 +4647,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr">
         <is>
           <t>FES CUAUTITLÁN | MEDICINA VETERINARIA Y ZOOTECNIA | PRESENCIAL</t>
@@ -4774,7 +4704,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr">
         <is>
           <t>FACULTAD DE MEDICINA | MÉDICO CIRUJANO | PRESENCIAL</t>
@@ -4832,7 +4761,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr">
         <is>
           <t>FES IZTACALA | MÉDICO CIRUJANO | PRESENCIAL</t>
@@ -4890,7 +4818,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr">
         <is>
           <t>FES ZARAGOZA | MÉDICO CIRUJANO | PRESENCIAL</t>
@@ -4948,7 +4875,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr">
         <is>
           <t>FES IZTACALA | OPTOMETRÍA | PRESENCIAL</t>
@@ -5006,7 +4932,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr">
         <is>
           <t>ENES LEÓN | OPTOMETRÍA | PRESENCIAL</t>
@@ -5064,7 +4989,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr">
         <is>
           <t>FACULTAD DE PSICOLOGÍA | PSICOLOGÍA | PRESENCIAL</t>
@@ -5122,7 +5046,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr">
         <is>
           <t>FACULTAD DE PSICOLOGÍA | PSICOLOGÍA | ABIERTA</t>
@@ -5180,7 +5103,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr">
         <is>
           <t>FES IZTACALA | PSICOLOGÍA | PRESENCIAL</t>
@@ -5238,7 +5160,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr">
         <is>
           <t>FES IZTACALA | PSICOLOGÍA | A DISTANCIA</t>
@@ -5296,7 +5217,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr">
         <is>
           <t>FES ZARAGOZA | PSICOLOGÍA | PRESENCIAL</t>
@@ -5354,7 +5274,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr">
         <is>
           <t>FACULTAD DE QUÍMICA | QUÍMICA | PRESENCIAL</t>
@@ -5412,7 +5331,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr">
         <is>
           <t>FES CUAUTITLÁN | QUÍMICA | PRESENCIAL</t>
@@ -5470,7 +5388,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr">
         <is>
           <t>FACULTAD DE QUÍMICA | QUÍMICA DE ALIMENTOS | PRESENCIAL</t>
@@ -5528,7 +5445,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr">
         <is>
           <t>FACULTAD DE QUÍMICA | QUÍMICA FARMACÉUTICO BIOLÓGICA | PRESENCIAL</t>
@@ -5586,7 +5502,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr">
         <is>
           <t>FES ZARAGOZA | QUÍMICA FARMACÉUTICO BIOLÓGICA | PRESENCIAL</t>
@@ -5644,7 +5559,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr">
         <is>
           <t>FES CUAUTITLÁN | QUÍMICA INDUSTRIAL | PRESENCIAL</t>
@@ -5702,7 +5616,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr">
         <is>
           <t>CENTRO DE CIENCIAS GENÓMICAS - INSTITUTO DE BIOTECNOLOGÍA | CIENCIAS GENÓMICAS | PRESENCIAL</t>
@@ -5760,7 +5673,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr">
         <is>
           <t>ENES JURIQUILLA | CIENCIAS GENÓMICAS | PRESENCIAL</t>
@@ -5818,7 +5730,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr">
         <is>
           <t>ENES MORELIA | CIENCIAS AMBIENTALES | PRESENCIAL</t>
@@ -5876,7 +5787,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr">
         <is>
           <t>ENES MÉRIDA | CIENCIAS AMBIENTALES | PRESENCIAL</t>
@@ -5934,7 +5844,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr">
         <is>
           <t>FACULTAD DE CIENCIAS | MANEJO SUSTENTABLE DE ZONAS COSTERAS | PRESENCIAL</t>
@@ -5992,7 +5901,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr">
         <is>
           <t>ENES MÉRIDA | MANEJO SUSTENTABLE DE ZONAS COSTERAS | PRESENCIAL</t>
@@ -6050,7 +5958,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr">
         <is>
           <t>FES CUAUTITLÁN | BIOQUÍMICA DIAGNÓSTICA | PRESENCIAL</t>
@@ -6108,7 +6015,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr">
         <is>
           <t>FES CUAUTITLÁN | FARMACIA | PRESENCIAL</t>
@@ -6166,7 +6072,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr">
         <is>
           <t>FACULTAD DE ENFERMERÍA Y OBSTETRICIA | ENFERMERÍA | PRESENCIAL</t>
@@ -6224,7 +6129,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr">
         <is>
           <t>FACULTAD DE ENFERMERÍA Y OBSTETRICIA | ENFERMERÍA* | A DISTANCIA</t>
@@ -6282,7 +6186,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr">
         <is>
           <t>FACULTAD DE ENFERMERÍA Y OBSTETRICIA | ENFERMERÍA* | ABIERTA</t>
@@ -6340,7 +6243,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr">
         <is>
           <t>FES IZTACALA | ENFERMERÍA | PRESENCIAL</t>
@@ -6398,7 +6300,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr">
         <is>
           <t>FES ZARAGOZA | ENFERMERÍA | PRESENCIAL</t>
@@ -6456,7 +6357,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr">
         <is>
           <t>FACULTAD DE MEDICINA | FISIOTERAPIA | PRESENCIAL</t>
@@ -6514,7 +6414,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr">
         <is>
           <t>ENES LEÓN | FISIOTERAPIA | PRESENCIAL</t>
@@ -6572,7 +6471,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr">
         <is>
           <t>ENES LEÓN | ODONTOLOGÍA | PRESENCIAL</t>
@@ -6630,7 +6528,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr">
         <is>
           <t>ENES LEÓN | CIENCIAS AGROGENÓMICAS | PRESENCIAL</t>
@@ -6688,7 +6585,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr">
         <is>
           <t>ESCUELA NACIONAL DE CIENCIAS FORENSES | CIENCIA FORENSE | PRESENCIAL</t>
@@ -6746,7 +6642,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr">
         <is>
           <t>FES IZTACALA | ECOLOGÍA | PRESENCIAL</t>
@@ -6804,7 +6699,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr">
         <is>
           <t>ENES MORELIA | ECOLOGÍA | PRESENCIAL</t>
@@ -6862,7 +6756,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr">
         <is>
           <t>ENES MÉRIDA | ECOLOGÍA | PRESENCIAL</t>
@@ -6920,7 +6813,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr">
         <is>
           <t>FACULTAD DE MEDICINA | NEUROCIENCIAS | PRESENCIAL</t>
@@ -6978,7 +6870,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr">
         <is>
           <t>ENES JURIQUILLA | NEUROCIENCIAS | PRESENCIAL</t>
@@ -7036,7 +6927,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr">
         <is>
           <t>FES ZARAGOZA | NUTRIOLOGÍA | PRESENCIAL</t>
@@ -7094,7 +6984,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr">
         <is>
           <t>ENES JURIQUILLA | ÓRTESIS Y PRÓTESIS | PRESENCIAL</t>
@@ -7152,7 +7041,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr">
         <is>
           <t>FACULTAD DE QUÍMICA | QUÍMICA E INGENIERÍA EN MATERIALES | PRESENCIAL</t>
@@ -7210,7 +7098,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr">
         <is>
           <t>ENES MORELIA | CIENCIAS AGROFORESTALES | PRESENCIAL</t>
@@ -7268,7 +7155,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr">
         <is>
           <t>FACULTAD DE MEDICINA | CIENCIA DE LA NUTRICIÓN HUMANA | PRESENCIAL</t>
@@ -7326,7 +7212,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr">
         <is>
           <t>FACULTAD DE CONTADURÍA Y ADMINISTRACIÓN | ADMINISTRACIÓN | A DISTANCIA</t>
@@ -7384,7 +7269,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr">
         <is>
           <t>FACULTAD DE CONTADURÍA Y ADMINISTRACIÓN | ADMINISTRACIÓN | ABIERTA</t>
@@ -7442,7 +7326,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr">
         <is>
           <t>FACULTAD DE CONTADURÍA Y ADMINISTRACIÓN | ADMINISTRACIÓN | PRESENCIAL</t>
@@ -7500,7 +7383,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr">
         <is>
           <t>FES CUAUTITLÁN | ADMINISTRACIÓN | PRESENCIAL</t>
@@ -7558,7 +7440,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr">
         <is>
           <t>FACULTAD DE CIENCIAS POLÍTICAS Y SOCIALES | CIENCIAS DE LA COMUNICACIÓN | ABIERTA</t>
@@ -7616,7 +7497,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr">
         <is>
           <t>FACULTAD DE CIENCIAS POLÍTICAS Y SOCIALES | CIENCIAS DE LA COMUNICACIÓN | A DISTANCIA</t>
@@ -7674,7 +7554,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr">
         <is>
           <t>FACULTAD DE CIENCIAS POLÍTICAS Y SOCIALES | CIENCIAS DE LA COMUNICACIÓN | PRESENCIAL</t>
@@ -7732,7 +7611,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr">
         <is>
           <t>FACULTAD DE CIENCIAS POLÍTICAS Y SOCIALES | CIENCIAS POLÍTICAS Y ADMINISTRACIÓN PÚBLICA | ABIERTA</t>
@@ -7790,7 +7668,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr">
         <is>
           <t>FACULTAD DE CIENCIAS POLÍTICAS Y SOCIALES | CIENCIAS POLÍTICAS Y ADMINISTRACIÓN PÚBLICA | A DISTANCIA</t>
@@ -7848,7 +7725,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr">
         <is>
           <t>FACULTAD DE CIENCIAS POLÍTICAS Y SOCIALES | CIENCIAS POLÍTICAS Y ADMINISTRACIÓN PÚBLICA | PRESENCIAL</t>
@@ -7906,7 +7782,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr">
         <is>
           <t>FES ACATLÁN | CIENCIAS POLÍTICAS Y ADMINISTRACIÓN PÚBLICA | PRESENCIAL</t>
@@ -7964,7 +7839,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr">
         <is>
           <t>FACULTAD DE CONTADURÍA Y ADMINISTRACIÓN | CONTADURÍA | ABIERTA</t>
@@ -8022,7 +7896,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr">
         <is>
           <t>FACULTAD DE CONTADURÍA Y ADMINISTRACIÓN | CONTADURÍA | A DISTANCIA</t>
@@ -8080,7 +7953,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr">
         <is>
           <t>FACULTAD DE CONTADURÍA Y ADMINISTRACIÓN | CONTADURÍA | PRESENCIAL</t>
@@ -8138,7 +8010,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr">
         <is>
           <t>FES CUAUTITLÁN | CONTADURÍA | PRESENCIAL</t>
@@ -8196,7 +8067,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr">
         <is>
           <t>FACULTAD DE DERECHO | DERECHO | A DISTANCIA</t>
@@ -8254,7 +8124,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr">
         <is>
           <t>FACULTAD DE DERECHO | DERECHO | ABIERTA</t>
@@ -8312,7 +8181,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr">
         <is>
           <t>FACULTAD DE DERECHO | DERECHO | PRESENCIAL</t>
@@ -8370,7 +8238,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr">
         <is>
           <t>FES ACATLÁN | DERECHO | ABIERTA</t>
@@ -8428,7 +8295,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr">
         <is>
           <t>FES ACATLÁN | DERECHO | PRESENCIAL</t>
@@ -8486,7 +8352,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
           <t>FES ARAGÓN | DERECHO | ABIERTA</t>
@@ -8544,7 +8409,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
           <t>FES ARAGÓN | DERECHO | PRESENCIAL</t>
@@ -8602,7 +8466,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
           <t>FACULTAD DE ECONOMÍA | ECONOMÍA | ABIERTA</t>
@@ -8660,7 +8523,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
           <t>FACULTAD DE ECONOMÍA | ECONOMÍA | A DISTANCIA</t>
@@ -8718,7 +8580,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
           <t>FACULTAD DE ECONOMÍA | ECONOMÍA | PRESENCIAL</t>
@@ -8776,7 +8637,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
           <t>FES ACATLÁN | ECONOMÍA | PRESENCIAL</t>
@@ -8834,7 +8694,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
           <t>FES ARAGÓN | ECONOMÍA | ABIERTA</t>
@@ -8892,7 +8751,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
           <t>FES ARAGÓN | ECONOMÍA | PRESENCIAL</t>
@@ -8950,7 +8808,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
           <t>FACULTAD DE FILOSOFÍA Y LETRAS | GEOGRAFÍA | ABIERTA</t>
@@ -9008,7 +8865,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
           <t>FACULTAD DE FILOSOFÍA Y LETRAS | GEOGRAFÍA | PRESENCIAL</t>
@@ -9066,7 +8922,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
           <t>FACULTAD DE CONTADURÍA Y ADMINISTRACIÓN | INFORMÁTICA | ABIERTA</t>
@@ -9124,7 +8979,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
           <t>FACULTAD DE CONTADURÍA Y ADMINISTRACIÓN | INFORMÁTICA | A DISTANCIA</t>
@@ -9182,7 +9036,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
           <t>FACULTAD DE CONTADURÍA Y ADMINISTRACIÓN | INFORMÁTICA | PRESENCIAL</t>
@@ -9240,7 +9093,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
           <t>FES CUAUTITLÁN | INFORMÁTICA | PRESENCIAL</t>
@@ -9298,7 +9150,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
           <t>FES CUAUTITLÁN | PLANIFICACIÓN PARA EL DESARROLLO AGROPECUARIO | PRESENCIAL</t>
@@ -9356,7 +9207,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
           <t>FACULTAD DE CIENCIAS POLÍTICAS Y SOCIALES | RELACIONES INTERNACIONALES | ABIERTA</t>
@@ -9414,7 +9264,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
           <t>FACULTAD DE CIENCIAS POLÍTICAS Y SOCIALES | RELACIONES INTERNACIONALES | A DISTANCIA</t>
@@ -9472,7 +9321,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
           <t>FACULTAD DE CIENCIAS POLÍTICAS Y SOCIALES | RELACIONES INTERNACIONALES | PRESENCIAL</t>
@@ -9530,7 +9378,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
           <t>FES ACATLÁN | RELACIONES INTERNACIONALES | ABIERTA</t>
@@ -9588,7 +9435,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
           <t>FES ACATLÁN | RELACIONES INTERNACIONALES | PRESENCIAL</t>
@@ -9646,7 +9492,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
           <t>FES ARAGÓN | RELACIONES INTERNACIONALES | ABIERTA</t>
@@ -9704,7 +9549,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
           <t>FES ARAGÓN | RELACIONES INTERNACIONALES | PRESENCIAL</t>
@@ -9762,7 +9606,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
           <t>FACULTAD DE CIENCIAS POLÍTICAS Y SOCIALES | SOCIOLOGÍA | ABIERTA</t>
@@ -9820,7 +9663,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
           <t>FACULTAD DE CIENCIAS POLÍTICAS Y SOCIALES | SOCIOLOGÍA | A DISTANCIA</t>
@@ -9878,7 +9720,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
           <t>FACULTAD DE CIENCIAS POLÍTICAS Y SOCIALES | SOCIOLOGÍA | PRESENCIAL</t>
@@ -9936,7 +9777,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr">
         <is>
           <t>FES ACATLÁN | SOCIOLOGÍA | PRESENCIAL</t>
@@ -9994,7 +9834,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr">
         <is>
           <t>FES ARAGÓN | SOCIOLOGÍA | PRESENCIAL</t>
@@ -10052,7 +9891,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K164" t="inlineStr"/>
       <c r="L164" t="inlineStr">
         <is>
           <t>ESCUELA NACIONAL DE TRABAJO SOCIAL | TRABAJO SOCIAL | A DISTANCIA</t>
@@ -10110,7 +9948,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr">
         <is>
           <t>ESCUELA NACIONAL DE TRABAJO SOCIAL | TRABAJO SOCIAL | ABIERTA</t>
@@ -10168,7 +10005,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr">
         <is>
           <t>ESCUELA NACIONAL DE TRABAJO SOCIAL | TRABAJO SOCIAL | PRESENCIAL</t>
@@ -10226,7 +10062,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr">
         <is>
           <t>ENES LEÓN | ECONOMÍA INDUSTRIAL | PRESENCIAL</t>
@@ -10284,7 +10119,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K168" t="inlineStr"/>
       <c r="L168" t="inlineStr">
         <is>
           <t>ENES LEÓN | ADMINISTRACIÓN AGROPECUARIA | PRESENCIAL</t>
@@ -10342,7 +10176,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K169" t="inlineStr"/>
       <c r="L169" t="inlineStr">
         <is>
           <t>FES ACATLÁN | COMUNICACIÓN | PRESENCIAL</t>
@@ -10400,7 +10233,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr">
         <is>
           <t>FES ARAGÓN | COMUNICACIÓN Y PERIODISMO | PRESENCIAL</t>
@@ -10458,7 +10290,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr">
         <is>
           <t>ENES MORELIA | ESTUDIOS SOCIALES Y GESTIÓN LOCAL | PRESENCIAL</t>
@@ -10516,7 +10347,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K172" t="inlineStr"/>
       <c r="L172" t="inlineStr">
         <is>
           <t>FES ZARAGOZA | DESARROLLO COMUNITARIO PARA EL ENVEJECIMIENTO | PRESENCIAL</t>
@@ -10574,7 +10404,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K173" t="inlineStr"/>
       <c r="L173" t="inlineStr">
         <is>
           <t>FACULTAD DE CIENCIAS POLÍTICAS Y SOCIALES | ANTROPOLOGÍA | PRESENCIAL</t>
@@ -10632,7 +10461,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr">
         <is>
           <t>ENES LEÓN | DESARROLLO TERRITORIAL | PRESENCIAL</t>
@@ -10690,7 +10518,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K175" t="inlineStr"/>
       <c r="L175" t="inlineStr">
         <is>
           <t>FACULTAD DE CONTADURÍA Y ADMINISTRACIÓN | NEGOCIOS INTERNACIONALES | PRESENCIAL</t>
@@ -10748,7 +10575,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K176" t="inlineStr"/>
       <c r="L176" t="inlineStr">
         <is>
           <t>ENES JURIQUILLA | NEGOCIOS INTERNACIONALES | PRESENCIAL</t>
@@ -10806,7 +10632,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K177" t="inlineStr"/>
       <c r="L177" t="inlineStr">
         <is>
           <t>ESCUELA NACIONAL DE CIENCIAS DE LA TIERRA | GEOGRAFÍA APLICADA | PRESENCIAL</t>
@@ -10864,7 +10689,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K178" t="inlineStr"/>
       <c r="L178" t="inlineStr">
         <is>
           <t>ENES MÉRIDA | GEOGRAFÍA APLICADA | PRESENCIAL</t>
@@ -10922,7 +10746,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K179" t="inlineStr"/>
       <c r="L179" t="inlineStr">
         <is>
           <t>ENES LEÓN | TURISMO Y DESARROLLO SOSTENIBLE | PRESENCIAL</t>
@@ -10980,7 +10803,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K180" t="inlineStr"/>
       <c r="L180" t="inlineStr">
         <is>
           <t>ENES MÉRIDA | SOCIOLOGÍA APLICADA | PRESENCIAL</t>
@@ -11038,7 +10860,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K181" t="inlineStr"/>
       <c r="L181" t="inlineStr">
         <is>
           <t>FACULTAD DE ARTES Y DISEÑO | ARTES VISUALES | PRESENCIAL</t>
@@ -11096,7 +10917,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K182" t="inlineStr"/>
       <c r="L182" t="inlineStr">
         <is>
           <t>FACULTAD DE ARTES Y DISEÑO (TAXCO) | ARTES VISUALES | PRESENCIAL</t>
@@ -11154,7 +10974,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K183" t="inlineStr"/>
       <c r="L183" t="inlineStr">
         <is>
           <t>FACULTAD DE FILOSOFÍA Y LETRAS | BIBLIOTECOLOGÍA Y ESTUDIOS DE LA INFORMACIÓN | A DISTANCIA</t>
@@ -11212,7 +11031,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K184" t="inlineStr"/>
       <c r="L184" t="inlineStr">
         <is>
           <t>FACULTAD DE FILOSOFÍA Y LETRAS | BIBLIOTECOLOGÍA Y ESTUDIOS DE LA INFORMACIÓN | PRESENCIAL</t>
@@ -11270,7 +11088,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
           <t>FACULTAD DE MÚSICA | CANTO | PRESENCIAL</t>
@@ -11328,7 +11145,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K186" t="inlineStr"/>
       <c r="L186" t="inlineStr">
         <is>
           <t>FACULTAD DE MÚSICA | COMPOSICIÓN | PRESENCIAL</t>
@@ -11386,7 +11202,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K187" t="inlineStr"/>
       <c r="L187" t="inlineStr">
         <is>
           <t>FES ACATLÁN | DISEÑO GRÁFICO | PRESENCIAL</t>
@@ -11444,7 +11259,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K188" t="inlineStr"/>
       <c r="L188" t="inlineStr">
         <is>
           <t>FACULTAD DE MÚSICA | EDUCACIÓN MUSICAL | PRESENCIAL</t>
@@ -11502,7 +11316,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K189" t="inlineStr"/>
       <c r="L189" t="inlineStr">
         <is>
           <t>FES ACATLÁN | ENSEÑANZA DE INGLÉS | PRESENCIAL</t>
@@ -11560,7 +11373,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K190" t="inlineStr"/>
       <c r="L190" t="inlineStr">
         <is>
           <t>FACULTAD DE FILOSOFÍA Y LETRAS | ESTUDIOS LATINOAMERICANOS | PRESENCIAL</t>
@@ -11618,7 +11430,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K191" t="inlineStr"/>
       <c r="L191" t="inlineStr">
         <is>
           <t>FACULTAD DE MÚSICA | ETNOMUSICOLOGÍA | PRESENCIAL</t>
@@ -11676,7 +11487,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K192" t="inlineStr"/>
       <c r="L192" t="inlineStr">
         <is>
           <t>FACULTAD DE FILOSOFÍA Y LETRAS | FILOSOFÍA | ABIERTA</t>
@@ -11734,7 +11544,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K193" t="inlineStr"/>
       <c r="L193" t="inlineStr">
         <is>
           <t>FACULTAD DE FILOSOFÍA Y LETRAS | FILOSOFÍA | PRESENCIAL</t>
@@ -11792,7 +11601,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K194" t="inlineStr"/>
       <c r="L194" t="inlineStr">
         <is>
           <t>FES ACATLÁN | FILOSOFÍA | PRESENCIAL</t>
@@ -11850,7 +11658,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K195" t="inlineStr"/>
       <c r="L195" t="inlineStr">
         <is>
           <t>FACULTAD DE FILOSOFÍA Y LETRAS | HISTORIA | ABIERTA</t>
@@ -11908,7 +11715,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K196" t="inlineStr"/>
       <c r="L196" t="inlineStr">
         <is>
           <t>FACULTAD DE FILOSOFÍA Y LETRAS | HISTORIA | PRESENCIAL</t>
@@ -11966,7 +11772,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K197" t="inlineStr"/>
       <c r="L197" t="inlineStr">
         <is>
           <t>FES ACATLÁN | HISTORIA | PRESENCIAL</t>
@@ -12024,7 +11829,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K198" t="inlineStr"/>
       <c r="L198" t="inlineStr">
         <is>
           <t>FACULTAD DE MÚSICA | INSTRUMENTISTA | PRESENCIAL</t>
@@ -12082,7 +11886,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K199" t="inlineStr"/>
       <c r="L199" t="inlineStr">
         <is>
           <t>FACULTAD DE FILOSOFÍA Y LETRAS | LENGUA Y LITERATURAS HISPÁNICAS | ABIERTA</t>
@@ -12140,7 +11943,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K200" t="inlineStr"/>
       <c r="L200" t="inlineStr">
         <is>
           <t>FACULTAD DE FILOSOFÍA Y LETRAS | LENGUA Y LITERATURAS HISPÁNICAS | PRESENCIAL</t>
@@ -12198,7 +12000,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K201" t="inlineStr"/>
       <c r="L201" t="inlineStr">
         <is>
           <t>FES ACATLÁN | LENGUA Y LITERATURAS HISPÁNICAS | PRESENCIAL</t>
@@ -12256,7 +12057,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K202" t="inlineStr"/>
       <c r="L202" t="inlineStr">
         <is>
           <t>FACULTAD DE FILOSOFÍA Y LETRAS | LENGUA Y LITERATURAS MODERNAS (ALEMANAS) | PRESENCIAL</t>
@@ -12314,7 +12114,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K203" t="inlineStr"/>
       <c r="L203" t="inlineStr">
         <is>
           <t>FACULTAD DE FILOSOFÍA Y LETRAS | LENGUA Y LITERATURAS MODERNAS (FRANCESAS) | PRESENCIAL</t>
@@ -12372,7 +12171,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K204" t="inlineStr"/>
       <c r="L204" t="inlineStr">
         <is>
           <t>FACULTAD DE FILOSOFÍA Y LETRAS | LENGUA Y LITERATURAS MODERNAS (INGLESAS) | PRESENCIAL</t>
@@ -12430,7 +12228,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K205" t="inlineStr"/>
       <c r="L205" t="inlineStr">
         <is>
           <t>FACULTAD DE FILOSOFÍA Y LETRAS | LENGUA Y LITERATURAS MODERNAS (INGLESAS) | ABIERTA</t>
@@ -12488,7 +12285,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K206" t="inlineStr"/>
       <c r="L206" t="inlineStr">
         <is>
           <t>FACULTAD DE FILOSOFÍA Y LETRAS | LENGUA Y LITERATURAS MODERNAS (ITALIANAS) | PRESENCIAL</t>
@@ -12546,7 +12342,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K207" t="inlineStr"/>
       <c r="L207" t="inlineStr">
         <is>
           <t>FACULTAD DE FILOSOFÍA Y LETRAS | LETRAS CLÁSICAS | PRESENCIAL</t>
@@ -12604,7 +12399,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K208" t="inlineStr"/>
       <c r="L208" t="inlineStr">
         <is>
           <t>FACULTAD DE FILOSOFÍA Y LETRAS | LITERATURA DRAMÁTICA Y TEATRO | PRESENCIAL</t>
@@ -12662,7 +12456,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K209" t="inlineStr"/>
       <c r="L209" t="inlineStr">
         <is>
           <t>FACULTAD DE FILOSOFÍA Y LETRAS | PEDAGOGÍA | ABIERTA</t>
@@ -12720,7 +12513,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K210" t="inlineStr"/>
       <c r="L210" t="inlineStr">
         <is>
           <t>FACULTAD DE FILOSOFÍA Y LETRAS | PEDAGOGÍA | A DISTANCIA</t>
@@ -12778,7 +12570,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
           <t>FACULTAD DE FILOSOFÍA Y LETRAS | PEDAGOGÍA | PRESENCIAL</t>
@@ -12836,7 +12627,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K212" t="inlineStr"/>
       <c r="L212" t="inlineStr">
         <is>
           <t>FES ACATLÁN | PEDAGOGÍA | PRESENCIAL</t>
@@ -12894,7 +12684,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K213" t="inlineStr"/>
       <c r="L213" t="inlineStr">
         <is>
           <t>FES ARAGÓN | PEDAGOGÍA | PRESENCIAL</t>
@@ -12952,7 +12741,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K214" t="inlineStr"/>
       <c r="L214" t="inlineStr">
         <is>
           <t>FACULTAD DE MÚSICA | PIANO | PRESENCIAL</t>
@@ -13010,7 +12798,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K215" t="inlineStr"/>
       <c r="L215" t="inlineStr">
         <is>
           <t>FACULTAD DE ARTES Y DISEÑO | DISEÑO Y COMUNICACIÓN VISUAL | PRESENCIAL</t>
@@ -13068,7 +12855,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K216" t="inlineStr"/>
       <c r="L216" t="inlineStr">
         <is>
           <t>FES CUAUTITLÁN | DISEÑO Y COMUNICACIÓN VISUAL | A DISTANCIA</t>
@@ -13126,7 +12912,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K217" t="inlineStr"/>
       <c r="L217" t="inlineStr">
         <is>
           <t>FES CUAUTITLÁN | DISEÑO Y COMUNICACIÓN VISUAL | PRESENCIAL</t>
@@ -13184,7 +12969,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K218" t="inlineStr"/>
       <c r="L218" t="inlineStr">
         <is>
           <t>FES ACATLÁN | ENSEÑANZA DE ALEMÁN COMO LENGUA EXTRANJERA | A DISTANCIA</t>
@@ -13242,7 +13026,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K219" t="inlineStr"/>
       <c r="L219" t="inlineStr">
         <is>
           <t>FES ACATLÁN | ENSEÑANZA DE ALEMÁN COMO LENGUA EXTRANJERA | ABIERTA</t>
@@ -13300,7 +13083,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K220" t="inlineStr"/>
       <c r="L220" t="inlineStr">
         <is>
           <t>FES ACATLÁN | ENSEÑANZA DE ESPAÑOL COMO LENGUA EXTRANJERA | A DISTANCIA</t>
@@ -13358,7 +13140,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K221" t="inlineStr"/>
       <c r="L221" t="inlineStr">
         <is>
           <t>FES ACATLÁN | ENSEÑANZA DE ESPAÑOL COMO LENGUA EXTRANJERA | ABIERTA</t>
@@ -13416,7 +13197,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K222" t="inlineStr"/>
       <c r="L222" t="inlineStr">
         <is>
           <t>FES ACATLÁN | ENSEÑANZA DE FRANCÉS COMO LENGUA EXTRANJERA | A DISTANCIA</t>
@@ -13474,7 +13254,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K223" t="inlineStr"/>
       <c r="L223" t="inlineStr">
         <is>
           <t>FES ACATLÁN | ENSEÑANZA DE FRANCÉS COMO LENGUA EXTRANJERA | ABIERTA</t>
@@ -13532,7 +13311,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K224" t="inlineStr"/>
       <c r="L224" t="inlineStr">
         <is>
           <t>FES ACATLÁN | ENSEÑANZA DE INGLÉS COMO LENGUA EXTRANJERA | A DISTANCIA</t>
@@ -13590,7 +13368,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K225" t="inlineStr"/>
       <c r="L225" t="inlineStr">
         <is>
           <t>FES ACATLÁN | ENSEÑANZA DE INGLÉS COMO LENGUA EXTRANJERA | ABIERTA</t>
@@ -13648,7 +13425,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K226" t="inlineStr"/>
       <c r="L226" t="inlineStr">
         <is>
           <t>FES ACATLÁN | ENSEÑANZA DE ITALIANO COMO LENGUA EXTRANJERA | A DISTANCIA</t>
@@ -13706,7 +13482,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr">
         <is>
           <t>FES ACATLÁN | ENSEÑANZA DE ITALIANO COMO LENGUA EXTRANJERA | ABIERTA</t>
@@ -13764,7 +13539,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr">
         <is>
           <t>FACULTAD DE FILOSOFÍA Y LETRAS | DESARROLLO Y GESTIÓN INTERCULTURALES | PRESENCIAL</t>
@@ -13822,7 +13596,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr">
         <is>
           <t>ENES LEÓN | DESARROLLO Y GESTIÓN INTERCULTURALES | PRESENCIAL</t>
@@ -13880,7 +13653,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr">
         <is>
           <t>ENES MÉRIDA | DESARROLLO Y GESTIÓN INTERCULTURALES | PRESENCIAL</t>
@@ -13938,7 +13710,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr">
         <is>
           <t>FACULTAD DE FILOSOFÍA Y LETRAS | LENGUA Y LITERATURAS MODERNAS (PORTUGUESAS) | PRESENCIAL</t>
@@ -13996,7 +13767,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr">
         <is>
           <t>ENES MORELIA | GEOHISTORIA | PRESENCIAL</t>
@@ -14054,7 +13824,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr">
         <is>
           <t>ENES MORELIA | LITERATURA INTERCULTURAL | PRESENCIAL</t>
@@ -14112,7 +13881,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr">
         <is>
           <t>ENES MORELIA | HISTORIA DEL ARTE | PRESENCIAL</t>
@@ -14170,7 +13938,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr">
         <is>
           <t>FACULTAD DE ARTES Y DISEÑO | ARTE Y DISEÑO | PRESENCIAL</t>
@@ -14228,7 +13995,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr">
         <is>
           <t>ENES MORELIA | ARTE Y DISEÑO | PRESENCIAL</t>
@@ -14286,7 +14052,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr">
         <is>
           <t>FACULTAD DE ARTES Y DISEÑO (TAXCO) | ARTE Y DISEÑO | PRESENCIAL</t>
@@ -14344,7 +14109,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr">
         <is>
           <t>ESCUELA NACIONAL DE ARTES CINEMATOGRÁFICAS | CINEMATOGRAFÍA | PRESENCIAL</t>
@@ -14402,7 +14166,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr">
         <is>
           <t>FACULTAD DE MÚSICA | TEATRO Y ACTUACIÓN | PRESENCIAL</t>
@@ -14460,7 +14223,6 @@
           <t>Modificación</t>
         </is>
       </c>
-      <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr">
         <is>
           <t>FACULTAD DE FILOSOFÍA Y LETRAS | ADMINISTRACIÓN DE ARCHIVOS Y GESTIÓN DOCUMENTAL | PRESENCIAL</t>
@@ -14518,7 +14280,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr">
         <is>
           <t>ENES MORELIA | ADMINISTRACIÓN DE ARCHIVOS Y GESTIÓN DOCUMENTAL | A DISTANCIA</t>
@@ -14576,7 +14337,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr">
         <is>
           <t>ENES MORELIA | ADMINISTRACIÓN DE ARCHIVOS Y GESTIÓN DOCUMENTAL | PRESENCIAL</t>
@@ -14634,7 +14394,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr">
         <is>
           <t>ENES MORELIA | MÚSICA Y TECNOLOGÍA ARTÍSTICA | PRESENCIAL</t>
@@ -14692,7 +14451,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr">
         <is>
           <t>ESCUELA NACIONAL DE LENGUAS, LINGÜÍSTICA Y TRADUCCIÓN | LINGÜÍSTICA APLICADA | PRESENCIAL</t>
@@ -14750,7 +14508,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr">
         <is>
           <t>ESCUELA NACIONAL DE LENGUAS, LINGÜÍSTICA Y TRADUCCIÓN | TRADUCCIÓN | PRESENCIAL</t>
@@ -14808,7 +14565,6 @@
           <t>Creación</t>
         </is>
       </c>
-      <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr">
         <is>
           <t>ENES LEÓN | TRADUCCIÓN | PRESENCIAL</t>
@@ -47735,4 +47491,3128 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E115"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="29" t="inlineStr">
+        <is>
+          <t>Entidad Responsable</t>
+        </is>
+      </c>
+      <c r="B1" s="29" t="inlineStr">
+        <is>
+          <t>Denominación del Plan de Estudios</t>
+        </is>
+      </c>
+      <c r="C1" s="29" t="inlineStr">
+        <is>
+          <t>Modalidad</t>
+        </is>
+      </c>
+      <c r="D1" s="29" t="inlineStr">
+        <is>
+          <t>Periodo</t>
+        </is>
+      </c>
+      <c r="E1" s="29" t="inlineStr">
+        <is>
+          <t>ID_CANONICO</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>ACTUARIA</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>101 | ACTUARIA | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>ARQUITECTURA</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>102 | ARQUITECTURA | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ARQUITECTURA DEL PAISAJE</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>103 | ARQUITECTURA DEL PAISAJE | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CIENCIAS DE LA COMPUTACION</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>104 | CIENCIAS DE LA COMPUTACION | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>DISEÑO INDUSTRIAL</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>105 | DISEÑO INDUSTRIAL | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>FISICA</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>106 | FISICA | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>INGENIERIA CIVIL</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>107 | INGENIERIA CIVIL | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>INGENIERIA DE MINAS Y METALURGIA</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>108 | INGENIERIA DE MINAS Y METALURGIA | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>INGENIERIA ELECTRICA Y ELECTRONICA</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>109 | INGENIERIA ELECTRICA Y ELECTRONICA | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>INGENIERIA EN COMPUTACION</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>110 | INGENIERIA EN COMPUTACION | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>INGENIERIA GEOFISICA</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>112 | INGENIERIA GEOFISICA | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>INGENIERIA GEOLOGICA</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>113 | INGENIERIA GEOLOGICA | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>INGENIERIA INDUSTRIAL</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>114 | INGENIERIA INDUSTRIAL | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>INGENIERIA MECANICA</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>115 | INGENIERIA MECANICA | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>INGENIERIA MECANICA ELECTRICA</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>116 | INGENIERIA MECANICA ELECTRICA | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>INGENIERIA PETROLERA</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>117 | INGENIERIA PETROLERA | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>INGENIERIA QUIMICA</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>118 | INGENIERIA QUIMICA | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>INGENIERIA QUIMICA METALURGICA</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>119 | INGENIERIA QUIMICA METALURGICA | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MATEMATICAS APLICADAS Y COMPUTACION</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>121 | MATEMATICAS APLICADAS Y COMPUTACION | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>MATEMATICAS</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>122 | MATEMATICAS | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>URBANISMO</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>123 | URBANISMO | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>INGENIERIA GEOMATICA</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>125 | INGENIERIA GEOMATICA | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>TECNOLOGIA</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>126 | TECNOLOGIA | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>CIENCIAS DE LA TIERRA</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>127 | CIENCIAS DE LA TIERRA | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>INGENIERIA EN TELECOMUNICACIONES, SISTEMAS Y ELECTRONICA</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>130 | INGENIERIA EN TELECOMUNICACIONES, SISTEMAS Y ELECTRONICA | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>GEOCIENCIAS</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>131 | GEOCIENCIAS | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>TECNOLOGIAS PARA LA INFORMACION EN CIENCIAS</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>132 | TECNOLOGIAS PARA LA INFORMACION EN CIENCIAS | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>CIENCIA DE MATERIALES SUSTENTABLES</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>133 | CIENCIA DE MATERIALES SUSTENTABLES | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>FISICA BIOMEDICA</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>134 | FISICA BIOMEDICA | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MATEMATICAS APLICADAS</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>136 | MATEMATICAS APLICADAS | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>INGENIERIA AMBIENTAL</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>137 | INGENIERIA AMBIENTAL | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>CIENCIA DE DATOS</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>138 | CIENCIA DE DATOS | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>BIOLOGIA</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>201 | BIOLOGIA | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>INGENIERIA AGRICOLA</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>204 | INGENIERIA AGRICOLA | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>INGENIERIA EN ALIMENTOS</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>205 | INGENIERIA EN ALIMENTOS | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>OPTOMETRIA</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>209 | OPTOMETRIA | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>PSICOLOGIA</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>210 | PSICOLOGIA | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>PSICOLOGIA</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>SUAYED (MODALIDAD ABIERTA)</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>210 | PSICOLOGIA | SUAYED (MODALIDAD ABIERTA)</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>QUIMICA</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>211 | QUIMICA | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>QUIMICA DE ALIMENTOS</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>212 | QUIMICA DE ALIMENTOS | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>QUIMICA FARMACEUTICO BIOLOGICA</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>213 | QUIMICA FARMACEUTICO BIOLOGICA | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>QUIMICA INDUSTRIAL</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>214 | QUIMICA INDUSTRIAL | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>CIENCIAS AMBIENTALES</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>216 | CIENCIAS AMBIENTALES | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>MANEJO SUSTENTABLE DE ZONAS COSTERAS</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>217 | MANEJO SUSTENTABLE DE ZONAS COSTERAS | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>BIOQUIMICA DIAGNOSTICA</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>218 | BIOQUIMICA DIAGNOSTICA | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>FARMACIA</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>219 | FARMACIA | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ENFERMERIA</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>220 | ENFERMERIA | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ECOLOGIA</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>225 | ECOLOGIA | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>QUIMICA E INGENIERIA EN MATERIALES</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>229 | QUIMICA E INGENIERIA EN MATERIALES | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>CIENCIAS AGROFORESTALES</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>230 | CIENCIAS AGROFORESTALES | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>ADMINISTRACION</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>301 | ADMINISTRACION | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>CIENCIAS POLITICAS Y ADMINISTRACION</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>303 | CIENCIAS POLITICAS Y ADMINISTRACION | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>CONTADURIA</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>304 | CONTADURIA | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>DERECHO</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>SUAYED</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>305 | DERECHO | SUAYED</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>DERECHO</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>305 | DERECHO | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>DERECHO</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>SUAYED (MODALIDAD ABIERTA)</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>305 | DERECHO | SUAYED (MODALIDAD ABIERTA)</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>ECONOMIA</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>SUAYED (MODALIDAD A DISTANCIA)</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>306 | ECONOMIA | SUAYED (MODALIDAD A DISTANCIA)</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>ECONOMIA</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>306 | ECONOMIA | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>ECONOMIA</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>SUAYED (MODALIDAD ABIERTA)</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>306 | ECONOMIA | SUAYED (MODALIDAD ABIERTA)</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>GEOGRAFIA</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>307 | GEOGRAFIA | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>GEOGRAFIA</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>SUAYED (MODALIDAD ABIERTA)</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>307 | GEOGRAFIA | SUAYED (MODALIDAD ABIERTA)</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>INFORMATICA</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>308 | INFORMATICA | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>PLANIFICACION PARA EL DESARROLLO AGR</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>309 | PLANIFICACION PARA EL DESARROLLO AGR | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>RELACIONES INTERNACIONALES</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>310 | RELACIONES INTERNACIONALES | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>RELACIONES INTERNACIONALES</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>SUAYED (MODALIDAD ABIERTA)</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>310 | RELACIONES INTERNACIONALES | SUAYED (MODALIDAD ABIERTA)</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>SOCIOLOGIA</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>311 | SOCIOLOGIA | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>TRABAJO SOCIAL</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>312 | TRABAJO SOCIAL | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>TRABAJO SOCIAL</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>SUAYED (MODALIDAD A DISTANCIA)</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>312 | TRABAJO SOCIAL | SUAYED (MODALIDAD A DISTANCIA)</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>COMUNICACION</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>315 | COMUNICACION | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>COMUNICACION Y PERIODISMO</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>316 | COMUNICACION Y PERIODISMO | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>ESTUDIOS SOCIALES Y GESTION LOCAL</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>317 | ESTUDIOS SOCIALES Y GESTION LOCAL | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>GEOGRAFIA APLICADA</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>322 | GEOGRAFIA APLICADA | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>BIBLIOTECOLOGIA</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>402 | BIBLIOTECOLOGIA | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>BIBLIOTECOLOGIA</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>SUAYED (MODALIDAD A DISTANCIA)</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>402 | BIBLIOTECOLOGIA | SUAYED (MODALIDAD A DISTANCIA)</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>CANTO</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>403 | CANTO | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>COMPOSICION</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>404 | COMPOSICION | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>DISEÑO GRAFICO</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>406 | DISEÑO GRAFICO | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>EDUCACION MUSICAL</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>407 | EDUCACION MUSICAL | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>ENSEÑANZA DE INGLES</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>408 | ENSEÑANZA DE INGLES | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>ESTUDIOS LATINOAMERICANOS</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>409 | ESTUDIOS LATINOAMERICANOS | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>ETNOMUSICOLOGIA</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>410 | ETNOMUSICOLOGIA | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>FILOSOFIA</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>411 | FILOSOFIA | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>FILOSOFIA</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>SUAYED (MODALIDAD ABIERTA)</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>411 | FILOSOFIA | SUAYED (MODALIDAD ABIERTA)</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>HISTORIA</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>412 | HISTORIA | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>HISTORIA</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>SUAYED (MODALIDAD ABIERTA)</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>412 | HISTORIA | SUAYED (MODALIDAD ABIERTA)</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>INSTRUMENTISTA</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>413 | INSTRUMENTISTA | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>LENGUA Y LITERATURAS HISPANICAS</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>414 | LENGUA Y LITERATURAS HISPANICAS | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>LENGUA Y LITERATURAS HISPANICAS</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>SUAYED (MODALIDAD ABIERTA)</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>414 | LENGUA Y LITERATURAS HISPANICAS | SUAYED (MODALIDAD ABIERTA)</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>LENGUA Y LIT MODERNAS ALEMANAS</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>415 | LENGUA Y LIT MODERNAS ALEMANAS | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>LENGUA Y LIT MODERNAS FRANCESAS</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>416 | LENGUA Y LIT MODERNAS FRANCESAS | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>LENGUA Y LIT MODERNAS INGLESAS</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>417 | LENGUA Y LIT MODERNAS INGLESAS | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>LENGUA Y LIT MODERNAS INGLESAS</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>SUAYED (MODALIDAD ABIERTA)</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>417 | LENGUA Y LIT MODERNAS INGLESAS | SUAYED (MODALIDAD ABIERTA)</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>418</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>LENGUA Y LIT MODERNAS ITALIANAS</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>418 | LENGUA Y LIT MODERNAS ITALIANAS | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>LETRAS CLASICAS</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>419 | LETRAS CLASICAS | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>LITERATURA DRAMATICA Y TEATRO</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>420 | LITERATURA DRAMATICA Y TEATRO | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>PEDAGOGIA</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>421 | PEDAGOGIA | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>PEDAGOGIA</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>SUAYED</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>421 | PEDAGOGIA | SUAYED</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>PIANO</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>422 | PIANO | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>DISEÑO Y COMUNICACION VISUAL</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>423 | DISEÑO Y COMUNICACION VISUAL | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>DISEÑO Y COMUNICACION VISUAL</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>SUAYED (MODALIDAD A DISTANCIA)</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>423 | DISEÑO Y COMUNICACION VISUAL | SUAYED (MODALIDAD A DISTANCIA)</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>ENSEÑANZA DE ALEMAN COMO LENGUA EXTRANJERA</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>SUAYED (MODALIDAD A DISTANCIA)</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>424 | ENSEÑANZA DE ALEMAN COMO LENGUA EXTRANJERA | SUAYED (MODALIDAD A DISTANCIA)</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>ENSEÑANZA DE ESPAÑOL COMO LENGUA EXTRANJERA</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>SUAYED (MODALIDAD A DISTANCIA)</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>425 | ENSEÑANZA DE ESPAÑOL COMO LENGUA EXTRANJERA | SUAYED (MODALIDAD A DISTANCIA)</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>ENSEÑANZA DE FRANCES COMO LENGUA EXTRANJERA</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>SUAYED (MODALIDAD A DISTANCIA)</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>426 | ENSEÑANZA DE FRANCES COMO LENGUA EXTRANJERA | SUAYED (MODALIDAD A DISTANCIA)</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>ENSEÑANZA DE INGLES COMO LENGUA EXTRANJERA</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>SUAYED (MODALIDAD A DISTANCIA)</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>427 | ENSEÑANZA DE INGLES COMO LENGUA EXTRANJERA | SUAYED (MODALIDAD A DISTANCIA)</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>ENSEÑANZA DE ITALIANO COMO LENGUA EXTRANJERA</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>SUAYED (MODALIDAD A DISTANCIA)</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>428 | ENSEÑANZA DE ITALIANO COMO LENGUA EXTRANJERA | SUAYED (MODALIDAD A DISTANCIA)</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>DESARROLLO Y GESTION INTERCULTURALES</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>429 | DESARROLLO Y GESTION INTERCULTURALES | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>LENGUA Y LIT MODERNAS PORTUGUESAS</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>430 | LENGUA Y LIT MODERNAS PORTUGUESAS | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>GEOHISTORIA</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>431 | GEOHISTORIA | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>LITERATURA INTERCULTURAL</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>432 | LITERATURA INTERCULTURAL | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>HISTORIA DEL ARTE</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>433 | HISTORIA DEL ARTE | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>ARTE Y DISEÑO</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>434 | ARTE Y DISEÑO | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>ADMINISTRACION DE ARCHIVOS Y GESTION DOCUMENTAL</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>437 | ADMINISTRACION DE ARCHIVOS Y GESTION DOCUMENTAL | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>ADMINISTRACION DE ARCHIVOS Y GESTION DOCUMENTAL</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>SUAYED (MODALIDAD A DISTANCIA)</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>437 | ADMINISTRACION DE ARCHIVOS Y GESTION DOCUMENTAL | SUAYED (MODALIDAD A DISTANCIA)</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>438</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>MUSICA Y TECNOLOGIA ARTISTICA</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>ESCOLARIZADO</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2025-1</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>438 | MUSICA Y TECNOLOGIA ARTISTICA | ESCOLARIZADO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>